--- a/getData/騎手・調教師.xlsx
+++ b/getData/騎手・調教師.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190468\Desktop\IT開発\Mango\getData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB579D38-11C6-4628-A3EE-409474B13127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98260F86-F4E7-4B74-8284-86CD3008F07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E2008DAD-DF76-4960-A716-BA0B17FC27D0}"/>
   </bookViews>
@@ -10380,11 +10380,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2671FDFC-5887-460C-AB81-49FFD05C1C2E}">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="N203" sqref="N203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
